--- a/Data/aearep-1953/candidatepackages.xlsx
+++ b/Data/aearep-1953/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,15 +22,9 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>diff</t>
   </si>
   <si>
@@ -49,9 +43,6 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>hausman</t>
   </si>
   <si>
@@ -61,21 +52,18 @@
     <t>title</t>
   </si>
   <si>
+    <t>poverty</t>
+  </si>
+  <si>
     <t>cluster</t>
   </si>
   <si>
     <t>panels</t>
   </si>
   <si>
-    <t>poverty</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
     <t>forest</t>
   </si>
   <si>
@@ -85,24 +73,21 @@
     <t>pre</t>
   </si>
   <si>
+    <t>zip</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
+    <t>unemp</t>
+  </si>
+  <si>
+    <t>gets</t>
+  </si>
+  <si>
     <t>next</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>gets</t>
-  </si>
-  <si>
-    <t>unemp</t>
-  </si>
-  <si>
     <t>bystore</t>
   </si>
   <si>
@@ -121,9 +106,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1953</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1953/134181/Replication_Files</t>
   </si>
   <si>
@@ -175,18 +157,9 @@
     <t>/home/lv39/Workspace/AEA/all//aearep-1953/134181/Replication_Files/unweighted</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1953/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>replicate.do</t>
   </si>
   <si>
@@ -260,9 +233,6 @@
   </si>
   <si>
     <t>unweighted_analysis.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -306,7 +276,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D26"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -314,13 +284,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
@@ -340,7 +310,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -352,7 +322,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -364,7 +334,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -376,7 +346,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -388,7 +358,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -400,7 +370,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -412,7 +382,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -424,10 +394,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>92</v>
+        <v>393</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.12991735339164734</v>
       </c>
       <c r="D10"/>
     </row>
@@ -436,10 +406,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>267</v>
+        <v>493</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.16297520697116852</v>
       </c>
       <c r="D11"/>
     </row>
@@ -448,10 +418,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>279</v>
+        <v>499</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D12"/>
     </row>
@@ -460,10 +430,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>408</v>
+        <v>529</v>
       </c>
       <c r="C13">
-        <v>0.13527850806713104</v>
+        <v>0.17487603425979614</v>
       </c>
       <c r="D13"/>
     </row>
@@ -472,10 +442,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>537</v>
+        <v>563</v>
       </c>
       <c r="C14">
-        <v>0.17805039882659912</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D14"/>
     </row>
@@ -484,10 +454,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>565</v>
+        <v>657</v>
       </c>
       <c r="C15">
-        <v>0.18733422458171844</v>
+        <v>0.21719008684158325</v>
       </c>
       <c r="D15"/>
     </row>
@@ -496,10 +466,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>566</v>
+        <v>998</v>
       </c>
       <c r="C16">
-        <v>0.18766577541828156</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D16"/>
     </row>
@@ -508,10 +478,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>679</v>
+        <v>1226</v>
       </c>
       <c r="C17">
-        <v>0.22513262927532196</v>
+        <v>0.40528926253318787</v>
       </c>
       <c r="D17"/>
     </row>
@@ -520,10 +490,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>811</v>
+        <v>1306</v>
       </c>
       <c r="C18">
-        <v>0.26889920234680176</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D18"/>
     </row>
@@ -532,10 +502,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>985</v>
+        <v>1428</v>
       </c>
       <c r="C19">
-        <v>0.32659152150154114</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D19"/>
     </row>
@@ -544,10 +514,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1124</v>
+        <v>1658</v>
       </c>
       <c r="C20">
-        <v>0.37267905473709106</v>
+        <v>0.54809916019439697</v>
       </c>
       <c r="D20"/>
     </row>
@@ -556,10 +526,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1375</v>
+        <v>1678</v>
       </c>
       <c r="C21">
-        <v>0.4559018611907959</v>
+        <v>0.5547107458114624</v>
       </c>
       <c r="D21"/>
     </row>
@@ -568,10 +538,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1472</v>
+        <v>1838</v>
       </c>
       <c r="C22">
-        <v>0.48806366324424744</v>
+        <v>0.60760331153869629</v>
       </c>
       <c r="D22"/>
     </row>
@@ -580,10 +550,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1553</v>
+        <v>1865</v>
       </c>
       <c r="C23">
-        <v>0.51492041349411011</v>
+        <v>0.61652892827987671</v>
       </c>
       <c r="D23"/>
     </row>
@@ -592,10 +562,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1621</v>
+        <v>1880</v>
       </c>
       <c r="C24">
-        <v>0.53746682405471802</v>
+        <v>0.62148761749267578</v>
       </c>
       <c r="D24"/>
     </row>
@@ -604,10 +574,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1798</v>
+        <v>2324</v>
       </c>
       <c r="C25">
-        <v>0.5961538553237915</v>
+        <v>0.76826447248458862</v>
       </c>
       <c r="D25"/>
     </row>
@@ -616,72 +586,12 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1817</v>
+        <v>2614</v>
       </c>
       <c r="C26">
-        <v>0.60245358943939209</v>
+        <v>0.86413222551345825</v>
       </c>
       <c r="D26"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>1859</v>
-      </c>
-      <c r="C27">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D27"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>1965</v>
-      </c>
-      <c r="C28">
-        <v>0.65152519941329956</v>
-      </c>
-      <c r="D28"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>2000</v>
-      </c>
-      <c r="C29">
-        <v>0.66312998533248901</v>
-      </c>
-      <c r="D29"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>2461</v>
-      </c>
-      <c r="C30">
-        <v>0.81598144769668579</v>
-      </c>
-      <c r="D30"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>2724</v>
-      </c>
-      <c r="C31">
-        <v>0.90318304300308228</v>
-      </c>
-      <c r="D31"/>
     </row>
   </sheetData>
 </worksheet>
@@ -689,239 +599,215 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B26"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
